--- a/Luban/Config/Datas/animationClips.xlsx
+++ b/Luban/Config/Datas/animationClips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E80337-0CB7-4187-9658-570C85B4D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAED82-5673-4357-B15C-A2AFFA24CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,30 +597,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="3" max="3" width="47.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="5" max="5" width="5.46484375" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.46484375" customWidth="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="13" max="13" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="AH5"/>
       <c r="AI5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>30001</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>30002</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>30003</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>30004</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>30005</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>30006</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>30007</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>30008</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>30009</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>30010</v>
       </c>
@@ -937,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>30011</v>
       </c>
@@ -945,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>30012</v>
       </c>
@@ -953,13 +953,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>30030</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
